--- a/Assets/Data/Table/Convert/ItemRecipe_Recipe.xlsx
+++ b/Assets/Data/Table/Convert/ItemRecipe_Recipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB82AE36-E8B1-4FB3-8829-A9B317EB1EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490A36B8-CECB-4190-B2A4-A94957B2C055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="450" windowWidth="16200" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43008" yWindow="3072" windowWidth="27168" windowHeight="20184" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="10" r:id="rId1"/>
@@ -60,21 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HealItem_AdditiveCount</t>
-  </si>
-  <si>
-    <t>MaxHpItem_AdditiveCount</t>
-  </si>
-  <si>
-    <t>MaxMpItem_AdditiveCount</t>
-  </si>
-  <si>
-    <t>MaxTpItem_AdditiveCount</t>
-  </si>
-  <si>
-    <t>MaxEquipSlot_AdditiveCount</t>
-  </si>
-  <si>
     <t>isAutoCombine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,11 +68,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxAtk_AdditiveCount</t>
-  </si>
-  <si>
     <t>Tb.Item
 Item</t>
+  </si>
+  <si>
+    <t>HealItem_LevelUpItem</t>
+  </si>
+  <si>
+    <t>MaxHpItem_LevelUpItem</t>
+  </si>
+  <si>
+    <t>MaxMpItem_LevelUpItem</t>
+  </si>
+  <si>
+    <t>MaxTpItem_LevelUpItem</t>
+  </si>
+  <si>
+    <t>MaxEquipSlot_LevelUpItem</t>
+  </si>
+  <si>
+    <t>AtkDamage_LevelUpItem</t>
   </si>
 </sst>
 </file>
@@ -206,19 +206,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -229,24 +229,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,25 +537,25 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="77.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>11</v>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>3</v>
@@ -569,132 +567,132 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
+      <c r="B2" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="str">
         <f>A3</f>
-        <v>HealItem_AdditiveCount</v>
+        <v>HealItem_LevelUpItem</v>
       </c>
       <c r="D3" s="9" t="str">
         <f>A3</f>
-        <v>HealItem_AdditiveCount</v>
+        <v>HealItem_LevelUpItem</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14" t="str">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="str">
         <f t="shared" ref="C4:C8" si="0">A4</f>
-        <v>MaxHpItem_AdditiveCount</v>
+        <v>MaxHpItem_LevelUpItem</v>
       </c>
       <c r="D4" s="9" t="str">
         <f t="shared" ref="D4:D8" si="1">A4</f>
-        <v>MaxHpItem_AdditiveCount</v>
+        <v>MaxHpItem_LevelUpItem</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="str">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>MaxMpItem_AdditiveCount</v>
+        <v>MaxMpItem_LevelUpItem</v>
       </c>
       <c r="D5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>MaxMpItem_AdditiveCount</v>
+        <v>MaxMpItem_LevelUpItem</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="str">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>MaxTpItem_AdditiveCount</v>
+        <v>MaxTpItem_LevelUpItem</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>MaxTpItem_AdditiveCount</v>
+        <v>MaxTpItem_LevelUpItem</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14" t="str">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>MaxEquipSlot_AdditiveCount</v>
+        <v>MaxEquipSlot_LevelUpItem</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>MaxEquipSlot_AdditiveCount</v>
+        <v>MaxEquipSlot_LevelUpItem</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14" t="str">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>MaxAtk_AdditiveCount</v>
+        <v>AtkDamage_LevelUpItem</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>MaxAtk_AdditiveCount</v>
+        <v>AtkDamage_LevelUpItem</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
